--- a/builds/species_lists/swebeswebe_species_list.xlsx
+++ b/builds/species_lists/swebeswebe_species_list.xlsx
@@ -116,6 +116,9 @@
     <t xml:space="preserve">Corky bark</t>
   </si>
   <si>
+    <t xml:space="preserve">no</t>
+  </si>
+  <si>
     <t xml:space="preserve">Croton gratissimus</t>
   </si>
   <si>
@@ -165,9 +168,6 @@
   </si>
   <si>
     <t xml:space="preserve">Hairy leaf margin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no</t>
   </si>
   <si>
     <t xml:space="preserve">Hermannia boraginiflora</t>
@@ -1174,7 +1174,7 @@
         <v>33</v>
       </c>
       <c r="B27" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="C27" t="s">
         <v>26</v>
@@ -1188,7 +1188,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B28" t="s">
         <v>6</v>
@@ -1205,7 +1205,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B29" t="s">
         <v>6</v>
@@ -1222,7 +1222,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B30" t="s">
         <v>6</v>
@@ -1239,7 +1239,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B31" t="s">
         <v>6</v>
@@ -1256,7 +1256,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B32" t="s">
         <v>6</v>
@@ -1273,7 +1273,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B33" t="s">
         <v>6</v>
@@ -1290,7 +1290,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B34" t="s">
         <v>6</v>
@@ -1307,7 +1307,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B35" t="s">
         <v>6</v>
@@ -1324,7 +1324,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B36" t="s">
         <v>6</v>
@@ -1341,7 +1341,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B37" t="s">
         <v>6</v>
@@ -1358,7 +1358,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B38" t="s">
         <v>6</v>
@@ -1375,7 +1375,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B39" t="s">
         <v>6</v>
@@ -1392,7 +1392,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B40" t="s">
         <v>6</v>
@@ -1409,7 +1409,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B41" t="s">
         <v>6</v>
@@ -1426,7 +1426,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B42" t="s">
         <v>6</v>
@@ -1443,7 +1443,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B43" t="s">
         <v>6</v>
@@ -1460,7 +1460,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B44" t="s">
         <v>6</v>
@@ -1477,10 +1477,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B45" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="C45" t="s">
         <v>7</v>
@@ -2228,7 +2228,7 @@
         <v>92</v>
       </c>
       <c r="B89" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="C89" t="s">
         <v>7</v>
@@ -2514,13 +2514,13 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B106" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="C106" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D106" t="s">
         <v>8</v>
@@ -2531,7 +2531,7 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B107" t="s">
         <v>6</v>
@@ -2548,7 +2548,7 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B108" t="s">
         <v>6</v>
@@ -2565,13 +2565,13 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>40</v>
+        <v>106</v>
       </c>
       <c r="B109" t="s">
         <v>6</v>
       </c>
       <c r="C109" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D109" t="s">
         <v>8</v>
@@ -2582,7 +2582,7 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B110" t="s">
         <v>6</v>
@@ -2599,7 +2599,7 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B111" t="s">
         <v>6</v>
@@ -2616,7 +2616,7 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B112" t="s">
         <v>6</v>
@@ -2633,7 +2633,7 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B113" t="s">
         <v>6</v>
@@ -2650,7 +2650,7 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B114" t="s">
         <v>6</v>
@@ -2667,7 +2667,7 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>111</v>
+        <v>50</v>
       </c>
       <c r="B115" t="s">
         <v>6</v>
@@ -2684,7 +2684,7 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>49</v>
+        <v>112</v>
       </c>
       <c r="B116" t="s">
         <v>6</v>
@@ -2701,7 +2701,7 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B117" t="s">
         <v>6</v>
@@ -2718,13 +2718,13 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>113</v>
+        <v>61</v>
       </c>
       <c r="B118" t="s">
         <v>6</v>
       </c>
       <c r="C118" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D118" t="s">
         <v>8</v>
@@ -2735,7 +2735,7 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B119" t="s">
         <v>6</v>
@@ -2752,7 +2752,7 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>67</v>
+        <v>114</v>
       </c>
       <c r="B120" t="s">
         <v>6</v>
@@ -2769,13 +2769,13 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B121" t="s">
         <v>6</v>
       </c>
       <c r="C121" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D121" t="s">
         <v>8</v>
@@ -2792,7 +2792,7 @@
         <v>6</v>
       </c>
       <c r="C122" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D122" t="s">
         <v>8</v>
@@ -2803,13 +2803,13 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B123" t="s">
         <v>6</v>
       </c>
       <c r="C123" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D123" t="s">
         <v>8</v>
@@ -2820,13 +2820,13 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B124" t="s">
         <v>6</v>
       </c>
       <c r="C124" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D124" t="s">
         <v>8</v>
@@ -2843,7 +2843,7 @@
         <v>6</v>
       </c>
       <c r="C125" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D125" t="s">
         <v>8</v>
@@ -2854,7 +2854,7 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B126" t="s">
         <v>6</v>
@@ -2871,13 +2871,13 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B127" t="s">
         <v>6</v>
       </c>
       <c r="C127" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D127" t="s">
         <v>8</v>
@@ -2888,13 +2888,13 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B128" t="s">
         <v>6</v>
       </c>
       <c r="C128" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D128" t="s">
         <v>8</v>
@@ -2905,7 +2905,7 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B129" t="s">
         <v>6</v>
@@ -2922,7 +2922,7 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B130" t="s">
         <v>6</v>
@@ -2939,13 +2939,13 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B131" t="s">
         <v>6</v>
       </c>
       <c r="C131" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D131" t="s">
         <v>8</v>
@@ -2962,7 +2962,7 @@
         <v>6</v>
       </c>
       <c r="C132" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D132" t="s">
         <v>8</v>
@@ -2973,7 +2973,7 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B133" t="s">
         <v>6</v>
@@ -2990,7 +2990,7 @@
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B134" t="s">
         <v>6</v>
@@ -3007,13 +3007,13 @@
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B135" t="s">
         <v>6</v>
       </c>
       <c r="C135" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D135" t="s">
         <v>8</v>
@@ -3024,13 +3024,13 @@
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B136" t="s">
         <v>6</v>
       </c>
       <c r="C136" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D136" t="s">
         <v>8</v>
@@ -3047,29 +3047,12 @@
         <v>6</v>
       </c>
       <c r="C137" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D137" t="s">
         <v>8</v>
       </c>
       <c r="E137" t="n">
-        <v>2024</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="s">
-        <v>127</v>
-      </c>
-      <c r="B138" t="s">
-        <v>6</v>
-      </c>
-      <c r="C138" t="s">
-        <v>27</v>
-      </c>
-      <c r="D138" t="s">
-        <v>8</v>
-      </c>
-      <c r="E138" t="n">
         <v>2024</v>
       </c>
     </row>
